--- a/MATRX2/python/Отчет.xlsx
+++ b/MATRX2/python/Отчет.xlsx
@@ -16,6 +16,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -83,13 +88,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
+              <a:t>Зависимость времени от количества потоков</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени от размера матрицы</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -100,11 +100,24 @@
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1 поток</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$1:$A$9</c:f>
@@ -145,45 +158,139 @@
             <c:numRef>
               <c:f>Лист1!$B$1:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1883</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2527</c:v>
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2572.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4543.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>10189.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>13253.2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>17226.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>22152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="154793088"/>
-        <c:axId val="154795008"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 потоков</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>609.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>934.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2564.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2693.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="164884864"/>
+        <c:axId val="164886784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154793088"/>
+        <c:axId val="164884864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,7 +306,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>размер</a:t>
+                  <a:t>Размер</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -209,12 +316,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154795008"/>
+        <c:crossAx val="164886784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154795008"/>
+        <c:axId val="164886784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -231,7 +338,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>время</a:t>
+                  <a:t>Время</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -241,16 +348,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154793088"/>
+        <c:crossAx val="164884864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -546,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,15 +678,15 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -583,7 +694,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -591,7 +702,7 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>404</v>
+        <v>2572.8000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -599,7 +710,7 @@
         <v>600</v>
       </c>
       <c r="B5">
-        <v>649</v>
+        <v>4543.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -607,7 +718,7 @@
         <v>700</v>
       </c>
       <c r="B6">
-        <v>906</v>
+        <v>10189.299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -615,7 +726,7 @@
         <v>800</v>
       </c>
       <c r="B7">
-        <v>1299</v>
+        <v>13253.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -623,7 +734,7 @@
         <v>900</v>
       </c>
       <c r="B8">
-        <v>1883</v>
+        <v>17226.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -631,7 +742,79 @@
         <v>1000</v>
       </c>
       <c r="B9">
-        <v>2527</v>
+        <v>22152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>350.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>600</v>
+      </c>
+      <c r="B16">
+        <v>609.20000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17">
+        <v>934.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>2564.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>2693.6</v>
       </c>
     </row>
   </sheetData>
